--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vip-Vipr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vip-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.152977553281711</v>
+        <v>0.1847786666666667</v>
       </c>
       <c r="H2">
-        <v>0.152977553281711</v>
+        <v>0.5543360000000001</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,31 +552,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.664255832048435</v>
+        <v>0.02608566666666666</v>
       </c>
       <c r="N2">
-        <v>0.664255832048435</v>
+        <v>0.07825699999999999</v>
       </c>
       <c r="O2">
-        <v>0.3247961162369746</v>
+        <v>0.007055522672798636</v>
       </c>
       <c r="P2">
-        <v>0.3247961162369746</v>
+        <v>0.007055522672798637</v>
       </c>
       <c r="Q2">
-        <v>0.1016162319398767</v>
+        <v>0.004820074705777777</v>
       </c>
       <c r="R2">
-        <v>0.1016162319398767</v>
+        <v>0.043380672352</v>
       </c>
       <c r="S2">
-        <v>0.3247961162369746</v>
+        <v>0.007055522672798636</v>
       </c>
       <c r="T2">
-        <v>0.3247961162369746</v>
+        <v>0.007055522672798637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +590,179 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.1847786666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.5543360000000001</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.6658376666666667</v>
+      </c>
+      <c r="N3">
+        <v>1.997513</v>
+      </c>
+      <c r="O3">
+        <v>0.1800924934601381</v>
+      </c>
+      <c r="P3">
+        <v>0.1800924934601381</v>
+      </c>
+      <c r="Q3">
+        <v>0.1230325962631111</v>
+      </c>
+      <c r="R3">
+        <v>1.107293366368</v>
+      </c>
+      <c r="S3">
+        <v>0.1800924934601381</v>
+      </c>
+      <c r="T3">
+        <v>0.1800924934601381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.152977553281711</v>
-      </c>
-      <c r="H3">
-        <v>0.152977553281711</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.38089125820737</v>
-      </c>
-      <c r="N3">
-        <v>1.38089125820737</v>
-      </c>
-      <c r="O3">
-        <v>0.6752038837630253</v>
-      </c>
-      <c r="P3">
-        <v>0.6752038837630253</v>
-      </c>
-      <c r="Q3">
-        <v>0.2112453660286669</v>
-      </c>
-      <c r="R3">
-        <v>0.2112453660286669</v>
-      </c>
-      <c r="S3">
-        <v>0.6752038837630253</v>
-      </c>
-      <c r="T3">
-        <v>0.6752038837630253</v>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1847786666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.5543360000000001</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.1152503333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.345751</v>
+      </c>
+      <c r="O4">
+        <v>0.03117234266126738</v>
+      </c>
+      <c r="P4">
+        <v>0.03117234266126739</v>
+      </c>
+      <c r="Q4">
+        <v>0.02129580292622223</v>
+      </c>
+      <c r="R4">
+        <v>0.191662226336</v>
+      </c>
+      <c r="S4">
+        <v>0.03117234266126738</v>
+      </c>
+      <c r="T4">
+        <v>0.03117234266126739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.1847786666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.5543360000000001</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2.890024666666667</v>
+      </c>
+      <c r="N5">
+        <v>8.670074</v>
+      </c>
+      <c r="O5">
+        <v>0.7816796412057959</v>
+      </c>
+      <c r="P5">
+        <v>0.7816796412057959</v>
+      </c>
+      <c r="Q5">
+        <v>0.5340149045404444</v>
+      </c>
+      <c r="R5">
+        <v>4.806134140864001</v>
+      </c>
+      <c r="S5">
+        <v>0.7816796412057959</v>
+      </c>
+      <c r="T5">
+        <v>0.7816796412057959</v>
       </c>
     </row>
   </sheetData>
